--- a/etc/delta_example_style_2.xlsx
+++ b/etc/delta_example_style_2.xlsx
@@ -8,19 +8,21 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Delta" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$84</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$K$84</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$84</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Delta!$A$1:$K$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Delta!$A$1:$K$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Delta!$A$1:$K$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Delta!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -82,7 +84,7 @@
     <t xml:space="preserve">-Mon</t>
   </si>
   <si>
-    <t xml:space="preserve">Digital</t>
+    <t xml:space="preserve">Bit</t>
   </si>
   <si>
     <t xml:space="preserve">Input</t>
@@ -304,7 +306,7 @@
     <t xml:space="preserve">-SP</t>
   </si>
   <si>
-    <t xml:space="preserve">Analog</t>
+    <t xml:space="preserve">Real</t>
   </si>
   <si>
     <t xml:space="preserve">mm/s2</t>
@@ -806,7 +808,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -829,32 +831,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -980,7 +963,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,40 +987,37 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,19 +1045,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,27 +1065,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1197,27 +1172,27 @@
   <dimension ref="1:84"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="237" zoomScaleNormal="237" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.95408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="30.219387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4642857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="10.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="8.20918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="4.75"/>
-    <col collapsed="false" hidden="false" max="1018" min="13" style="8" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="25.0204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="37.6173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="5.76020408163265"/>
+    <col collapsed="false" hidden="false" max="1018" min="13" style="8" width="33.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="33.2959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,7 +1983,7 @@
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -2045,7 +2020,7 @@
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -2232,7 +2207,7 @@
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -2349,7 +2324,7 @@
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -3000,7 +2975,7 @@
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3421,7 +3396,7 @@
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="15" t="s">
         <v>180</v>
       </c>
       <c r="C59" s="16" t="s">
@@ -3842,7 +3817,7 @@
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="15" t="s">
         <v>213</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -4409,329 +4384,329 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K84"/>
-  <conditionalFormatting sqref="B2;B81:B84;B24:B48;B60:B69">
+  <conditionalFormatting sqref="B3">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B2)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B3)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B4)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+      <formula>LEN(B5)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B3)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+      <formula>LEN(B6)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B5)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+      <formula>LEN(B7)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B6)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+      <formula>LEN(B8)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B7)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+      <formula>LEN(B9)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B8)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+      <formula>LEN(B10)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B9)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+      <formula>LEN(B11)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B10)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+      <formula>LEN(B12)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B11)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+      <formula>LEN(B13)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B12)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B13)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B14)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B15)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B16)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B17)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B18)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B19)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B20)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B21)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22;B81:B84;B24:B48;B60:B69">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B58">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B22)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23;B25;B27;B29;B31;B33;B35;B37;B39;B41;B43;B45;B47;B81;B83">
+      <formula>LEN(B49)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B23)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B58">
+      <formula>LEN(B59)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B49)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50;B52;B54;B56;B58">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B50)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B69">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B60)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B59)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B69">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B60)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61;B63;B65;B67;B69">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B61)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
+      <formula>LEN(B70)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
+      <formula>LEN(B70)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B80">
@@ -4749,119 +4724,44 @@
       <formula>LEN(B71)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>LEN(B71)&gt;40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B80">
     <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B70)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B80">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B71)&gt;40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72;B74;B76;B78;B80">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(B72)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
